--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Angular2\bot_demo\service_demo\Webhook-and-API.AI-Echo-Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Angular2\bot_demo\Alexa\alexa-forecaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Sandesh</t>
+  </si>
+  <si>
+    <t>Parulekar</t>
+  </si>
+  <si>
+    <t>Ruchi</t>
+  </si>
+  <si>
+    <t>Gupta</t>
   </si>
 </sst>
 </file>
@@ -426,7 +438,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,10 +531,56 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
+      <c r="A4">
+        <v>3333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>75000</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
+      <c r="A5">
+        <v>4444</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -41,9 +41,6 @@
     <t>Tom</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PlanName</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Gupta</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,19 +463,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -489,19 +489,19 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4">
         <v>55000</v>
       </c>
       <c r="F2" s="5">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="G2" s="5">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -512,22 +512,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4">
         <v>65000</v>
       </c>
       <c r="F3" s="5">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="G3" s="5">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -535,25 +535,25 @@
         <v>3333</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4">
         <v>75000</v>
       </c>
       <c r="F4" s="5">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="G4" s="5">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="H4">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -561,25 +561,25 @@
         <v>4444</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4">
         <v>45000</v>
       </c>
       <c r="F5" s="5">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="G5" s="5">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="H5">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -53,9 +53,6 @@
     <t>PersonalRateofReturn</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Benchmark</t>
   </si>
   <si>
@@ -72,6 +69,24 @@
   </si>
   <si>
     <t>Armstrong</t>
+  </si>
+  <si>
+    <t>RetireAge</t>
+  </si>
+  <si>
+    <t>CurrentSaving</t>
+  </si>
+  <si>
+    <t>IncreaseSaving</t>
+  </si>
+  <si>
+    <t>SavingsRate</t>
+  </si>
+  <si>
+    <t>SavingsRateAgain</t>
+  </si>
+  <si>
+    <t>ActualAge</t>
   </si>
 </sst>
 </file>
@@ -435,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,12 +462,17 @@
     <col min="2" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,13 +492,28 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1111</v>
       </c>
@@ -495,16 +530,33 @@
         <v>55000</v>
       </c>
       <c r="F2" s="5">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="G2" s="5">
         <v>0.03</v>
       </c>
       <c r="H2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I2">
+        <v>64</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="L2" s="5">
+        <f>(K2-J2)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="M2" s="5">
+        <f>(L2/2)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2222</v>
       </c>
@@ -512,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -521,24 +573,41 @@
         <v>65000</v>
       </c>
       <c r="F3" s="5">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="G3" s="5">
         <v>0.03</v>
       </c>
       <c r="H3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I3">
+        <v>63</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="L3" s="5">
+        <f>(K3-J3)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="M3" s="5">
+        <f>(L3/2)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3333</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -547,24 +616,41 @@
         <v>75000</v>
       </c>
       <c r="F4" s="5">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="G4" s="5">
         <v>0.03</v>
       </c>
       <c r="H4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I4">
+        <v>63</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="L4" s="5">
+        <f>(K4-J4)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <f>(L4/2)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4444</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -573,46 +659,63 @@
         <v>45000</v>
       </c>
       <c r="F5" s="5">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="G5" s="5">
         <v>0.03</v>
       </c>
       <c r="H5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I5">
+        <v>65</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="L5" s="5">
+        <f>(K5-J5)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="M5" s="5">
+        <f>(L5/2)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -641,6 +744,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>ActualAge</t>
+  </si>
+  <si>
+    <t>Santhosh</t>
+  </si>
+  <si>
+    <t>keshavan</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +692,47 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+      <c r="A6">
+        <v>5555</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>75000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H6">
+        <v>67</v>
+      </c>
+      <c r="I6">
+        <v>63</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="L6" s="5">
+        <f>(K6-J6)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="M6" s="5">
+        <f>(L6/2)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
@@ -757,6 +803,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -769,5 +816,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Angular2\bot_demo\Alexa\alexa-forecaster\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7428"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -93,6 +88,18 @@
   </si>
   <si>
     <t>keshavan</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Stevens</t>
+  </si>
+  <si>
+    <t>Bousfield</t>
+  </si>
+  <si>
+    <t>Jeffery</t>
   </si>
 </sst>
 </file>
@@ -212,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,7 +254,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,23 +466,23 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -735,10 +742,90 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
+      <c r="A7">
+        <v>6666</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>82000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H7">
+        <v>67</v>
+      </c>
+      <c r="I7">
+        <v>63</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="L7" s="5">
+        <f>(K7-J7)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="M7" s="5">
+        <f>(L7/2)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="A8">
+        <v>7777</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>80000</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H8">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="L8" s="5">
+        <f>(K8-J8)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <f>(L8/2)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
@@ -800,7 +887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -813,7 +900,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
